--- a/Data/Copy of Questionnaire.xlsx
+++ b/Data/Copy of Questionnaire.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Ethnobotany and Uses" sheetId="2" r:id="rId3"/>
     <sheet name="Taro pdn n constraints" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2957" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2960" uniqueCount="539">
   <si>
     <t>S/N</t>
   </si>
@@ -1646,6 +1646,12 @@
   </si>
   <si>
     <t>Humid Forest</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Long</t>
   </si>
 </sst>
 </file>
@@ -1863,7 +1869,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1999,6 +2005,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2282,8 +2297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D33" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2292,6 +2307,7 @@
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" customWidth="1"/>
     <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
     <col min="12" max="12" width="14.28515625" customWidth="1"/>
     <col min="15" max="15" width="13.140625" customWidth="1"/>
     <col min="16" max="16" width="11.7109375" style="47" customWidth="1"/>
@@ -2329,10 +2345,12 @@
       <c r="H1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="49"/>
+      <c r="I1" s="50" t="s">
+        <v>537</v>
+      </c>
+      <c r="J1" s="50" t="s">
+        <v>538</v>
+      </c>
       <c r="K1" s="32" t="s">
         <v>9</v>
       </c>
@@ -2422,7 +2440,7 @@
       <c r="N2" s="11">
         <v>56</v>
       </c>
-      <c r="O2" s="11">
+      <c r="O2" s="51">
         <v>5</v>
       </c>
       <c r="P2" s="10" t="s">
@@ -2499,7 +2517,7 @@
       <c r="N3" s="11">
         <v>40</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="51">
         <v>3</v>
       </c>
       <c r="P3" s="10">
@@ -2576,7 +2594,7 @@
       <c r="N4" s="11">
         <v>40</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="51">
         <v>3</v>
       </c>
       <c r="P4" s="10" t="s">
@@ -2653,7 +2671,7 @@
       <c r="N5" s="11">
         <v>53</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="51">
         <v>4</v>
       </c>
       <c r="P5" s="10" t="s">
@@ -2730,7 +2748,7 @@
       <c r="N6" s="11">
         <v>45</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="51">
         <v>4</v>
       </c>
       <c r="P6" s="10" t="s">
@@ -2807,7 +2825,7 @@
       <c r="N7" s="11">
         <v>40</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="51">
         <v>3</v>
       </c>
       <c r="P7" s="10" t="s">
@@ -2884,7 +2902,7 @@
       <c r="N8" s="11">
         <v>42</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="51">
         <v>3</v>
       </c>
       <c r="P8" s="10" t="s">
@@ -2961,7 +2979,7 @@
       <c r="N9" s="11">
         <v>70</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O9" s="51">
         <v>6</v>
       </c>
       <c r="P9" s="10" t="s">
@@ -3038,7 +3056,7 @@
       <c r="N10" s="11">
         <v>50</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O10" s="51">
         <v>4</v>
       </c>
       <c r="P10" s="10" t="s">
@@ -3115,7 +3133,7 @@
       <c r="N11" s="11">
         <v>53</v>
       </c>
-      <c r="O11" s="11">
+      <c r="O11" s="51">
         <v>4</v>
       </c>
       <c r="P11" s="10" t="s">
@@ -3192,7 +3210,7 @@
       <c r="N12" s="11">
         <v>32</v>
       </c>
-      <c r="O12" s="11">
+      <c r="O12" s="51">
         <v>2</v>
       </c>
       <c r="P12" s="10" t="s">
@@ -3269,7 +3287,7 @@
       <c r="N13" s="11">
         <v>65</v>
       </c>
-      <c r="O13" s="11">
+      <c r="O13" s="51">
         <v>6</v>
       </c>
       <c r="P13" s="10" t="s">
@@ -3346,7 +3364,7 @@
       <c r="N14" s="11">
         <v>53</v>
       </c>
-      <c r="O14" s="11">
+      <c r="O14" s="51">
         <v>4</v>
       </c>
       <c r="P14" s="10" t="s">
@@ -3423,7 +3441,7 @@
       <c r="N15" s="11">
         <v>59</v>
       </c>
-      <c r="O15" s="11">
+      <c r="O15" s="51">
         <v>5</v>
       </c>
       <c r="P15" s="10" t="s">
@@ -3500,7 +3518,7 @@
       <c r="N16" s="11">
         <v>34</v>
       </c>
-      <c r="O16" s="11">
+      <c r="O16" s="51">
         <v>2</v>
       </c>
       <c r="P16" s="10" t="s">
@@ -3577,7 +3595,7 @@
       <c r="N17" s="11">
         <v>56</v>
       </c>
-      <c r="O17" s="11">
+      <c r="O17" s="51">
         <v>5</v>
       </c>
       <c r="P17" s="20" t="s">
@@ -3654,7 +3672,7 @@
       <c r="N18" s="11">
         <v>41</v>
       </c>
-      <c r="O18" s="11">
+      <c r="O18" s="51">
         <v>3</v>
       </c>
       <c r="P18" s="20" t="s">
@@ -3731,7 +3749,7 @@
       <c r="N19" s="11">
         <v>50</v>
       </c>
-      <c r="O19" s="11">
+      <c r="O19" s="51">
         <v>4</v>
       </c>
       <c r="P19" s="20" t="s">
@@ -3808,7 +3826,7 @@
       <c r="N20" s="22">
         <v>45</v>
       </c>
-      <c r="O20" s="22">
+      <c r="O20" s="52">
         <v>4</v>
       </c>
       <c r="P20" s="20" t="s">
@@ -3867,7 +3885,7 @@
       <c r="N21" s="11">
         <v>69</v>
       </c>
-      <c r="O21" s="11">
+      <c r="O21" s="51">
         <v>6</v>
       </c>
       <c r="P21" s="20" t="s">
@@ -3944,7 +3962,7 @@
       <c r="N22" s="11">
         <v>38</v>
       </c>
-      <c r="O22" s="11">
+      <c r="O22" s="51">
         <v>3</v>
       </c>
       <c r="P22" s="20" t="s">
@@ -4021,7 +4039,7 @@
       <c r="N23" s="11">
         <v>25</v>
       </c>
-      <c r="O23" s="11">
+      <c r="O23" s="51">
         <v>2</v>
       </c>
       <c r="P23" s="20" t="s">
@@ -4098,7 +4116,7 @@
       <c r="N24" s="11">
         <v>89</v>
       </c>
-      <c r="O24" s="11">
+      <c r="O24" s="51">
         <v>7</v>
       </c>
       <c r="P24" s="20" t="s">
@@ -4175,7 +4193,7 @@
       <c r="N25" s="11">
         <v>67</v>
       </c>
-      <c r="O25" s="11">
+      <c r="O25" s="51">
         <v>6</v>
       </c>
       <c r="P25" s="20" t="s">
@@ -4252,7 +4270,7 @@
       <c r="N26" s="11">
         <v>60</v>
       </c>
-      <c r="O26" s="11">
+      <c r="O26" s="51">
         <v>6</v>
       </c>
       <c r="P26" s="20" t="s">
@@ -4329,7 +4347,7 @@
       <c r="N27" s="11">
         <v>70</v>
       </c>
-      <c r="O27" s="11">
+      <c r="O27" s="51">
         <v>6</v>
       </c>
       <c r="P27" s="20" t="s">
@@ -4406,7 +4424,7 @@
       <c r="N28" s="11">
         <v>55</v>
       </c>
-      <c r="O28" s="11">
+      <c r="O28" s="51">
         <v>5</v>
       </c>
       <c r="P28" s="20" t="s">
@@ -4483,7 +4501,7 @@
       <c r="N29" s="11">
         <v>65</v>
       </c>
-      <c r="O29" s="11">
+      <c r="O29" s="51">
         <v>6</v>
       </c>
       <c r="P29" s="20" t="s">
@@ -4560,7 +4578,7 @@
       <c r="N30" s="11">
         <v>32</v>
       </c>
-      <c r="O30" s="11">
+      <c r="O30" s="51">
         <v>2</v>
       </c>
       <c r="P30" s="20" t="s">
@@ -4637,7 +4655,7 @@
       <c r="N31" s="11">
         <v>60</v>
       </c>
-      <c r="O31" s="11">
+      <c r="O31" s="51">
         <v>5</v>
       </c>
       <c r="P31" s="20" t="s">
@@ -4714,7 +4732,7 @@
       <c r="N32" s="11">
         <v>70</v>
       </c>
-      <c r="O32" s="11">
+      <c r="O32" s="51">
         <v>6</v>
       </c>
       <c r="P32" s="20" t="s">
@@ -4791,7 +4809,7 @@
       <c r="N33" s="11">
         <v>35</v>
       </c>
-      <c r="O33" s="11">
+      <c r="O33" s="51">
         <v>3</v>
       </c>
       <c r="P33" s="20" t="s">
@@ -4868,7 +4886,7 @@
       <c r="N34" s="11">
         <v>55</v>
       </c>
-      <c r="O34" s="11">
+      <c r="O34" s="51">
         <v>5</v>
       </c>
       <c r="P34" s="20" t="s">
@@ -4945,7 +4963,7 @@
       <c r="N35" s="11">
         <v>50</v>
       </c>
-      <c r="O35" s="11">
+      <c r="O35" s="51">
         <v>4</v>
       </c>
       <c r="P35" s="20" t="s">
@@ -5022,7 +5040,7 @@
       <c r="N36" s="11">
         <v>50</v>
       </c>
-      <c r="O36" s="11">
+      <c r="O36" s="51">
         <v>4</v>
       </c>
       <c r="P36" s="20" t="s">
@@ -5099,7 +5117,7 @@
       <c r="N37" s="11">
         <v>47</v>
       </c>
-      <c r="O37" s="11">
+      <c r="O37" s="51">
         <v>4</v>
       </c>
       <c r="P37" s="20" t="s">
@@ -5176,7 +5194,7 @@
       <c r="N38" s="11">
         <v>35</v>
       </c>
-      <c r="O38" s="11">
+      <c r="O38" s="51">
         <v>3</v>
       </c>
       <c r="P38" s="20" t="s">
@@ -5253,7 +5271,7 @@
       <c r="N39" s="11">
         <v>65</v>
       </c>
-      <c r="O39" s="11">
+      <c r="O39" s="51">
         <v>6</v>
       </c>
       <c r="P39" s="20" t="s">
@@ -5330,7 +5348,7 @@
       <c r="N40" s="11">
         <v>50</v>
       </c>
-      <c r="O40" s="11">
+      <c r="O40" s="51">
         <v>4</v>
       </c>
       <c r="P40" s="20" t="s">
@@ -5407,7 +5425,7 @@
       <c r="N41" s="11">
         <v>45</v>
       </c>
-      <c r="O41" s="11">
+      <c r="O41" s="51">
         <v>4</v>
       </c>
       <c r="P41" s="20" t="s">
@@ -5484,7 +5502,7 @@
       <c r="N42" s="11">
         <v>30</v>
       </c>
-      <c r="O42" s="11">
+      <c r="O42" s="51">
         <v>2</v>
       </c>
       <c r="P42" s="20" t="s">
@@ -5561,7 +5579,7 @@
       <c r="N43" s="11">
         <v>35</v>
       </c>
-      <c r="O43" s="11">
+      <c r="O43" s="51">
         <v>3</v>
       </c>
       <c r="P43" s="20" t="s">
@@ -5638,7 +5656,7 @@
       <c r="N44" s="11">
         <v>36</v>
       </c>
-      <c r="O44" s="11">
+      <c r="O44" s="51">
         <v>3</v>
       </c>
       <c r="P44" s="20" t="s">
@@ -5715,7 +5733,7 @@
       <c r="N45" s="11">
         <v>27</v>
       </c>
-      <c r="O45" s="11">
+      <c r="O45" s="51">
         <v>2</v>
       </c>
       <c r="P45" s="20" t="s">
@@ -5792,7 +5810,7 @@
       <c r="N46" s="11">
         <v>24</v>
       </c>
-      <c r="O46" s="11">
+      <c r="O46" s="51">
         <v>1</v>
       </c>
       <c r="P46" s="20" t="s">
@@ -5869,7 +5887,7 @@
       <c r="N47" s="11">
         <v>65</v>
       </c>
-      <c r="O47" s="11">
+      <c r="O47" s="51">
         <v>6</v>
       </c>
       <c r="P47" s="20" t="s">
@@ -5946,7 +5964,7 @@
       <c r="N48" s="11">
         <v>62</v>
       </c>
-      <c r="O48" s="11">
+      <c r="O48" s="51">
         <v>5</v>
       </c>
       <c r="P48" s="20" t="s">
@@ -6023,7 +6041,7 @@
       <c r="N49" s="11">
         <v>45</v>
       </c>
-      <c r="O49" s="11">
+      <c r="O49" s="51">
         <v>4</v>
       </c>
       <c r="P49" s="29" t="s">
@@ -6100,7 +6118,7 @@
       <c r="N50" s="11">
         <v>65</v>
       </c>
-      <c r="O50" s="11">
+      <c r="O50" s="51">
         <v>6</v>
       </c>
       <c r="P50" s="20" t="s">
@@ -6177,7 +6195,7 @@
       <c r="N51" s="11">
         <v>20</v>
       </c>
-      <c r="O51" s="11">
+      <c r="O51" s="51">
         <v>1</v>
       </c>
       <c r="P51" s="20" t="s">
@@ -6254,7 +6272,7 @@
       <c r="N52" s="11">
         <v>18</v>
       </c>
-      <c r="O52" s="11">
+      <c r="O52" s="51">
         <v>1</v>
       </c>
       <c r="P52" s="20" t="s">
@@ -6331,7 +6349,7 @@
       <c r="N53" s="11">
         <v>40</v>
       </c>
-      <c r="O53" s="11">
+      <c r="O53" s="51">
         <v>3</v>
       </c>
       <c r="P53" s="20" t="s">
@@ -6408,7 +6426,7 @@
       <c r="N54" s="11">
         <v>36</v>
       </c>
-      <c r="O54" s="11">
+      <c r="O54" s="51">
         <v>3</v>
       </c>
       <c r="P54" s="20" t="s">
@@ -6485,7 +6503,7 @@
       <c r="N55" s="11">
         <v>57</v>
       </c>
-      <c r="O55" s="11">
+      <c r="O55" s="51">
         <v>5</v>
       </c>
       <c r="P55" s="20" t="s">
@@ -6562,7 +6580,7 @@
       <c r="N56" s="11">
         <v>55</v>
       </c>
-      <c r="O56" s="11">
+      <c r="O56" s="51">
         <v>5</v>
       </c>
       <c r="P56" s="20" t="s">
@@ -6639,7 +6657,7 @@
       <c r="N57" s="11">
         <v>41</v>
       </c>
-      <c r="O57" s="11">
+      <c r="O57" s="51">
         <v>3</v>
       </c>
       <c r="P57" s="20" t="s">
@@ -6716,7 +6734,7 @@
       <c r="N58" s="11">
         <v>63</v>
       </c>
-      <c r="O58" s="11">
+      <c r="O58" s="51">
         <v>5</v>
       </c>
       <c r="P58" s="20" t="s">
@@ -6793,7 +6811,7 @@
       <c r="N59" s="11">
         <v>75</v>
       </c>
-      <c r="O59" s="11">
+      <c r="O59" s="51">
         <v>7</v>
       </c>
       <c r="P59" s="20" t="s">
@@ -6870,7 +6888,7 @@
       <c r="N60" s="11">
         <v>70</v>
       </c>
-      <c r="O60" s="11">
+      <c r="O60" s="51">
         <v>6</v>
       </c>
       <c r="P60" s="20" t="s">
@@ -6947,7 +6965,7 @@
       <c r="N61" s="11">
         <v>45</v>
       </c>
-      <c r="O61" s="11">
+      <c r="O61" s="51">
         <v>4</v>
       </c>
       <c r="P61" s="20" t="s">
@@ -7024,7 +7042,7 @@
       <c r="N62" s="11">
         <v>58</v>
       </c>
-      <c r="O62" s="11">
+      <c r="O62" s="51">
         <v>5</v>
       </c>
       <c r="P62" s="20" t="s">
@@ -7101,7 +7119,7 @@
       <c r="N63" s="11">
         <v>48</v>
       </c>
-      <c r="O63" s="11">
+      <c r="O63" s="51">
         <v>4</v>
       </c>
       <c r="P63" s="20" t="s">
@@ -7178,7 +7196,7 @@
       <c r="N64" s="11">
         <v>39</v>
       </c>
-      <c r="O64" s="11">
+      <c r="O64" s="51">
         <v>3</v>
       </c>
       <c r="P64" s="20" t="s">
@@ -7213,9 +7231,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I1:J1"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7257,8 +7272,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
+      <c r="I1" s="50" t="s">
+        <v>537</v>
+      </c>
+      <c r="J1" s="50" t="s">
+        <v>538</v>
       </c>
       <c r="K1" t="s">
         <v>9</v>
@@ -10944,7 +10962,7 @@
   <dimension ref="A1:AL64"/>
   <sheetViews>
     <sheetView topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL1" sqref="AL1"/>
+      <selection activeCell="AQ1" sqref="AQ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10987,10 +11005,12 @@
       <c r="H1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="49"/>
+      <c r="I1" s="50" t="s">
+        <v>537</v>
+      </c>
+      <c r="J1" s="50" t="s">
+        <v>538</v>
+      </c>
       <c r="K1" s="32" t="s">
         <v>9</v>
       </c>
@@ -12093,7 +12113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -18196,9 +18216,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I1:J1"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Copy of Questionnaire.xlsx
+++ b/Data/Copy of Questionnaire.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5925"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5925" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Interview Background" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2960" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2959" uniqueCount="539">
   <si>
     <t>S/N</t>
   </si>
@@ -1261,9 +1261,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Age Group (18 - 24 = 1; 25-34 =2; 35-44 =3; 45-54=4; 55-64=5; 65-74 =6; &gt;74 =7)</t>
-  </si>
-  <si>
     <t>Production constraints 1</t>
   </si>
   <si>
@@ -1652,6 +1649,9 @@
   </si>
   <si>
     <t>Long</t>
+  </si>
+  <si>
+    <t>Koko arugbo</t>
   </si>
 </sst>
 </file>
@@ -1869,7 +1869,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2000,20 +2000,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2295,10 +2289,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y64"/>
+  <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2309,18 +2303,17 @@
     <col min="8" max="8" width="13.140625" customWidth="1"/>
     <col min="9" max="9" width="10.140625" customWidth="1"/>
     <col min="12" max="12" width="14.28515625" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" style="47" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" customWidth="1"/>
-    <col min="18" max="18" width="10.28515625" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" customWidth="1"/>
-    <col min="21" max="21" width="9.85546875" customWidth="1"/>
-    <col min="22" max="22" width="9.42578125" customWidth="1"/>
-    <col min="23" max="23" width="10.5703125" customWidth="1"/>
-    <col min="25" max="25" width="11.85546875" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="47" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" customWidth="1"/>
+    <col min="21" max="21" width="9.42578125" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" customWidth="1"/>
+    <col min="24" max="24" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -2345,11 +2338,11 @@
       <c r="H1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="48" t="s">
+        <v>536</v>
+      </c>
+      <c r="J1" s="48" t="s">
         <v>537</v>
-      </c>
-      <c r="J1" s="50" t="s">
-        <v>538</v>
       </c>
       <c r="K1" s="32" t="s">
         <v>9</v>
@@ -2363,41 +2356,38 @@
       <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="P1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>223</v>
+      </c>
       <c r="Q1" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="Y1" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2440,21 +2430,21 @@
       <c r="N2" s="11">
         <v>56</v>
       </c>
-      <c r="O2" s="51">
-        <v>5</v>
-      </c>
-      <c r="P2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Q2">
+      <c r="P2">
         <v>6</v>
       </c>
+      <c r="Q2" t="s">
+        <v>233</v>
+      </c>
       <c r="R2" t="s">
-        <v>233</v>
-      </c>
-      <c r="S2" t="s">
         <v>239</v>
       </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
       <c r="T2">
         <v>1</v>
       </c>
@@ -2470,11 +2460,8 @@
       <c r="X2">
         <v>1</v>
       </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2517,21 +2504,21 @@
       <c r="N3" s="11">
         <v>40</v>
       </c>
-      <c r="O3" s="51">
-        <v>3</v>
-      </c>
-      <c r="P3" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q3">
+      <c r="O3" s="10">
+        <v>0</v>
+      </c>
+      <c r="P3">
         <v>6</v>
       </c>
+      <c r="Q3" t="s">
+        <v>240</v>
+      </c>
       <c r="R3" t="s">
-        <v>240</v>
-      </c>
-      <c r="S3" t="s">
         <v>241</v>
       </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
       <c r="T3">
         <v>1</v>
       </c>
@@ -2547,11 +2534,8 @@
       <c r="X3">
         <v>1</v>
       </c>
-      <c r="Y3">
-        <v>1</v>
-      </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2594,20 +2578,20 @@
       <c r="N4" s="11">
         <v>40</v>
       </c>
-      <c r="O4" s="51">
-        <v>3</v>
-      </c>
-      <c r="P4" s="10" t="s">
+      <c r="O4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="Q4">
+      <c r="P4">
         <v>6</v>
       </c>
-      <c r="R4" t="s">
+      <c r="Q4" t="s">
         <v>232</v>
       </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
         <v>1</v>
@@ -2624,11 +2608,8 @@
       <c r="X4">
         <v>1</v>
       </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="5" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2671,21 +2652,21 @@
       <c r="N5" s="11">
         <v>53</v>
       </c>
-      <c r="O5" s="51">
-        <v>4</v>
-      </c>
-      <c r="P5" s="10" t="s">
+      <c r="O5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="Q5">
+      <c r="P5">
         <v>8</v>
       </c>
-      <c r="R5" t="s">
+      <c r="Q5" t="s">
         <v>233</v>
       </c>
-      <c r="S5" s="41" t="s">
+      <c r="R5" s="41" t="s">
         <v>234</v>
       </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
       <c r="T5">
         <v>1</v>
       </c>
@@ -2701,11 +2682,8 @@
       <c r="X5">
         <v>1</v>
       </c>
-      <c r="Y5">
-        <v>1</v>
-      </c>
     </row>
-    <row r="6" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2748,20 +2726,20 @@
       <c r="N6" s="11">
         <v>45</v>
       </c>
-      <c r="O6" s="51">
-        <v>4</v>
-      </c>
-      <c r="P6" s="10" t="s">
+      <c r="O6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q6">
+      <c r="P6">
         <v>12</v>
       </c>
-      <c r="R6" t="s">
+      <c r="Q6" t="s">
         <v>233</v>
       </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
       <c r="S6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6">
         <v>1</v>
@@ -2778,11 +2756,8 @@
       <c r="X6">
         <v>1</v>
       </c>
-      <c r="Y6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="7" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2825,21 +2800,21 @@
       <c r="N7" s="11">
         <v>40</v>
       </c>
-      <c r="O7" s="51">
-        <v>3</v>
-      </c>
-      <c r="P7" s="10" t="s">
+      <c r="O7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="Q7">
+      <c r="P7">
         <v>5</v>
       </c>
-      <c r="R7" s="41" t="s">
+      <c r="Q7" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="S7" t="s">
+      <c r="R7" t="s">
         <v>243</v>
       </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
       <c r="T7">
         <v>1</v>
       </c>
@@ -2855,11 +2830,8 @@
       <c r="X7">
         <v>1</v>
       </c>
-      <c r="Y7">
-        <v>1</v>
-      </c>
     </row>
-    <row r="8" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2902,20 +2874,20 @@
       <c r="N8" s="11">
         <v>42</v>
       </c>
-      <c r="O8" s="51">
-        <v>3</v>
-      </c>
-      <c r="P8" s="10" t="s">
+      <c r="O8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="Q8">
+      <c r="P8">
         <v>5</v>
       </c>
-      <c r="R8" s="41" t="s">
+      <c r="Q8" s="41" t="s">
         <v>234</v>
       </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
       <c r="S8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
         <v>1</v>
@@ -2932,11 +2904,8 @@
       <c r="X8">
         <v>1</v>
       </c>
-      <c r="Y8">
-        <v>1</v>
-      </c>
     </row>
-    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2979,20 +2948,20 @@
       <c r="N9" s="11">
         <v>70</v>
       </c>
-      <c r="O9" s="51">
-        <v>6</v>
-      </c>
-      <c r="P9" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q9">
+      <c r="O9" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="P9">
         <v>5</v>
       </c>
-      <c r="R9" t="s">
+      <c r="Q9" t="s">
         <v>233</v>
       </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
       <c r="S9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T9">
         <v>2</v>
@@ -3009,11 +2978,8 @@
       <c r="X9">
         <v>2</v>
       </c>
-      <c r="Y9">
-        <v>2</v>
-      </c>
     </row>
-    <row r="10" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -3056,20 +3022,20 @@
       <c r="N10" s="11">
         <v>50</v>
       </c>
-      <c r="O10" s="51">
+      <c r="O10" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="P10">
         <v>4</v>
       </c>
-      <c r="P10" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q10">
-        <v>4</v>
-      </c>
-      <c r="R10" t="s">
+      <c r="Q10" t="s">
         <v>233</v>
       </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
       <c r="S10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T10">
         <v>2</v>
@@ -3086,11 +3052,8 @@
       <c r="X10">
         <v>2</v>
       </c>
-      <c r="Y10">
-        <v>2</v>
-      </c>
     </row>
-    <row r="11" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3133,21 +3096,21 @@
       <c r="N11" s="11">
         <v>53</v>
       </c>
-      <c r="O11" s="51">
-        <v>4</v>
-      </c>
-      <c r="P11" s="10" t="s">
+      <c r="O11" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="Q11">
+      <c r="P11">
         <v>5</v>
       </c>
-      <c r="R11" t="s">
+      <c r="Q11" t="s">
         <v>233</v>
       </c>
-      <c r="S11" s="41" t="s">
+      <c r="R11" s="41" t="s">
         <v>251</v>
       </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
       <c r="T11">
         <v>1</v>
       </c>
@@ -3163,11 +3126,8 @@
       <c r="X11">
         <v>1</v>
       </c>
-      <c r="Y11">
-        <v>1</v>
-      </c>
     </row>
-    <row r="12" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -3210,20 +3170,20 @@
       <c r="N12" s="11">
         <v>32</v>
       </c>
-      <c r="O12" s="51">
-        <v>2</v>
-      </c>
-      <c r="P12" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q12">
+      <c r="O12" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="P12">
         <v>6</v>
       </c>
-      <c r="R12" t="s">
+      <c r="Q12" t="s">
         <v>233</v>
       </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
       <c r="S12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12">
         <v>1</v>
@@ -3240,11 +3200,8 @@
       <c r="X12">
         <v>1</v>
       </c>
-      <c r="Y12">
-        <v>1</v>
-      </c>
     </row>
-    <row r="13" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -3287,21 +3244,21 @@
       <c r="N13" s="11">
         <v>65</v>
       </c>
-      <c r="O13" s="51">
-        <v>6</v>
-      </c>
-      <c r="P13" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q13">
+      <c r="O13" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="P13">
         <v>15</v>
       </c>
-      <c r="R13" t="s">
+      <c r="Q13" t="s">
         <v>233</v>
       </c>
-      <c r="S13" s="41" t="s">
+      <c r="R13" s="41" t="s">
         <v>244</v>
       </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
       <c r="T13">
         <v>1</v>
       </c>
@@ -3317,11 +3274,8 @@
       <c r="X13">
         <v>1</v>
       </c>
-      <c r="Y13">
-        <v>1</v>
-      </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -3364,20 +3318,20 @@
       <c r="N14" s="11">
         <v>53</v>
       </c>
-      <c r="O14" s="51">
-        <v>4</v>
-      </c>
-      <c r="P14" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q14">
+      <c r="O14" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="P14">
         <v>8</v>
       </c>
-      <c r="R14" t="s">
+      <c r="Q14" t="s">
         <v>233</v>
       </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
       <c r="S14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14">
         <v>1</v>
@@ -3394,11 +3348,8 @@
       <c r="X14">
         <v>1</v>
       </c>
-      <c r="Y14">
-        <v>1</v>
-      </c>
     </row>
-    <row r="15" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -3441,20 +3392,20 @@
       <c r="N15" s="11">
         <v>59</v>
       </c>
-      <c r="O15" s="51">
-        <v>5</v>
-      </c>
-      <c r="P15" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q15">
+      <c r="O15" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="P15">
         <v>6</v>
       </c>
-      <c r="R15" t="s">
+      <c r="Q15" t="s">
         <v>233</v>
       </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
       <c r="S15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15">
         <v>1</v>
@@ -3471,11 +3422,8 @@
       <c r="X15">
         <v>1</v>
       </c>
-      <c r="Y15">
-        <v>1</v>
-      </c>
     </row>
-    <row r="16" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -3518,20 +3466,20 @@
       <c r="N16" s="11">
         <v>34</v>
       </c>
-      <c r="O16" s="51">
-        <v>2</v>
-      </c>
-      <c r="P16" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q16">
+      <c r="O16" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="P16">
         <v>6</v>
       </c>
-      <c r="R16" t="s">
+      <c r="Q16" t="s">
         <v>233</v>
       </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
       <c r="S16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16">
         <v>1</v>
@@ -3548,11 +3496,8 @@
       <c r="X16">
         <v>1</v>
       </c>
-      <c r="Y16">
-        <v>1</v>
-      </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -3595,20 +3540,20 @@
       <c r="N17" s="11">
         <v>56</v>
       </c>
-      <c r="O17" s="51">
-        <v>5</v>
-      </c>
-      <c r="P17" s="20" t="s">
+      <c r="O17" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="Q17">
+      <c r="P17">
         <v>3</v>
       </c>
-      <c r="R17" t="s">
+      <c r="Q17" t="s">
         <v>233</v>
       </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
       <c r="S17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17">
         <v>1</v>
@@ -3625,11 +3570,8 @@
       <c r="X17">
         <v>1</v>
       </c>
-      <c r="Y17">
-        <v>1</v>
-      </c>
     </row>
-    <row r="18" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -3672,20 +3614,20 @@
       <c r="N18" s="11">
         <v>41</v>
       </c>
-      <c r="O18" s="51">
-        <v>3</v>
-      </c>
-      <c r="P18" s="20" t="s">
+      <c r="O18" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="Q18">
+      <c r="P18">
         <v>8</v>
       </c>
-      <c r="R18" t="s">
+      <c r="Q18" t="s">
         <v>237</v>
       </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
       <c r="S18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18">
         <v>1</v>
@@ -3702,11 +3644,8 @@
       <c r="X18">
         <v>1</v>
       </c>
-      <c r="Y18">
-        <v>1</v>
-      </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -3749,20 +3688,20 @@
       <c r="N19" s="11">
         <v>50</v>
       </c>
-      <c r="O19" s="51">
-        <v>4</v>
-      </c>
-      <c r="P19" s="20" t="s">
+      <c r="O19" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="Q19">
+      <c r="P19">
         <v>8</v>
       </c>
-      <c r="R19" t="s">
+      <c r="Q19" t="s">
         <v>233</v>
       </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
       <c r="S19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19">
         <v>1</v>
@@ -3779,11 +3718,8 @@
       <c r="X19">
         <v>1</v>
       </c>
-      <c r="Y19">
-        <v>1</v>
-      </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -3826,23 +3762,20 @@
       <c r="N20" s="22">
         <v>45</v>
       </c>
-      <c r="O20" s="52">
-        <v>4</v>
-      </c>
-      <c r="P20" s="20" t="s">
+      <c r="O20" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="Q20">
+      <c r="P20">
         <v>3</v>
       </c>
-      <c r="R20" t="s">
+      <c r="Q20" t="s">
         <v>233</v>
       </c>
-      <c r="S20">
+      <c r="R20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -3885,20 +3818,20 @@
       <c r="N21" s="11">
         <v>69</v>
       </c>
-      <c r="O21" s="51">
+      <c r="O21" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="P21">
         <v>6</v>
       </c>
-      <c r="P21" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q21">
-        <v>6</v>
-      </c>
-      <c r="R21" t="s">
+      <c r="Q21" t="s">
         <v>233</v>
       </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
       <c r="S21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21">
         <v>1</v>
@@ -3915,11 +3848,8 @@
       <c r="X21">
         <v>1</v>
       </c>
-      <c r="Y21">
-        <v>1</v>
-      </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -3962,21 +3892,21 @@
       <c r="N22" s="11">
         <v>38</v>
       </c>
-      <c r="O22" s="51">
-        <v>3</v>
-      </c>
-      <c r="P22" s="20" t="s">
+      <c r="O22" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="Q22">
+      <c r="P22">
         <v>6</v>
       </c>
+      <c r="Q22" t="s">
+        <v>252</v>
+      </c>
       <c r="R22" t="s">
-        <v>252</v>
-      </c>
-      <c r="S22" t="s">
         <v>233</v>
       </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
       <c r="T22">
         <v>1</v>
       </c>
@@ -3992,11 +3922,8 @@
       <c r="X22">
         <v>1</v>
       </c>
-      <c r="Y22">
-        <v>1</v>
-      </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -4039,21 +3966,21 @@
       <c r="N23" s="11">
         <v>25</v>
       </c>
-      <c r="O23" s="51">
-        <v>2</v>
-      </c>
-      <c r="P23" s="20" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q23">
+      <c r="O23" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="P23">
         <v>5</v>
       </c>
+      <c r="Q23" t="s">
+        <v>237</v>
+      </c>
       <c r="R23" t="s">
-        <v>237</v>
-      </c>
-      <c r="S23" t="s">
         <v>253</v>
       </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
       <c r="T23">
         <v>1</v>
       </c>
@@ -4069,11 +3996,8 @@
       <c r="X23">
         <v>1</v>
       </c>
-      <c r="Y23">
-        <v>1</v>
-      </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -4108,7 +4032,7 @@
         <v>323.38337999999999</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="M24" s="19" t="s">
         <v>37</v>
@@ -4116,20 +4040,20 @@
       <c r="N24" s="11">
         <v>89</v>
       </c>
-      <c r="O24" s="51">
-        <v>7</v>
-      </c>
-      <c r="P24" s="20" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q24">
+      <c r="O24" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="P24">
         <v>5</v>
       </c>
-      <c r="R24" t="s">
+      <c r="Q24" t="s">
         <v>233</v>
       </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
       <c r="S24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24">
         <v>1</v>
@@ -4146,11 +4070,8 @@
       <c r="X24">
         <v>1</v>
       </c>
-      <c r="Y24">
-        <v>1</v>
-      </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -4193,21 +4114,21 @@
       <c r="N25" s="11">
         <v>67</v>
       </c>
-      <c r="O25" s="51">
-        <v>6</v>
-      </c>
-      <c r="P25" s="20" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q25">
+      <c r="O25" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="P25">
         <v>5</v>
       </c>
+      <c r="Q25" t="s">
+        <v>254</v>
+      </c>
       <c r="R25" t="s">
-        <v>254</v>
-      </c>
-      <c r="S25" t="s">
         <v>233</v>
       </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
       <c r="T25">
         <v>1</v>
       </c>
@@ -4223,11 +4144,8 @@
       <c r="X25">
         <v>1</v>
       </c>
-      <c r="Y25">
-        <v>1</v>
-      </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -4270,20 +4188,20 @@
       <c r="N26" s="11">
         <v>60</v>
       </c>
-      <c r="O26" s="51">
-        <v>6</v>
-      </c>
-      <c r="P26" s="20" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q26">
+      <c r="O26" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="P26">
         <v>5</v>
       </c>
-      <c r="R26" t="s">
+      <c r="Q26" t="s">
         <v>233</v>
       </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
       <c r="S26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26">
         <v>1</v>
@@ -4300,11 +4218,8 @@
       <c r="X26">
         <v>1</v>
       </c>
-      <c r="Y26">
-        <v>1</v>
-      </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -4347,21 +4262,21 @@
       <c r="N27" s="11">
         <v>70</v>
       </c>
-      <c r="O27" s="51">
-        <v>6</v>
-      </c>
-      <c r="P27" s="20" t="s">
+      <c r="O27" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="Q27">
+      <c r="P27">
         <v>3</v>
       </c>
+      <c r="Q27" t="s">
+        <v>235</v>
+      </c>
       <c r="R27" t="s">
-        <v>235</v>
-      </c>
-      <c r="S27" t="s">
         <v>243</v>
       </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
       <c r="T27">
         <v>1</v>
       </c>
@@ -4377,11 +4292,8 @@
       <c r="X27">
         <v>1</v>
       </c>
-      <c r="Y27">
-        <v>1</v>
-      </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -4424,20 +4336,20 @@
       <c r="N28" s="11">
         <v>55</v>
       </c>
-      <c r="O28" s="51">
-        <v>5</v>
-      </c>
-      <c r="P28" s="20" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q28">
+      <c r="O28" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="P28">
         <v>6</v>
       </c>
-      <c r="R28" t="s">
+      <c r="Q28" t="s">
         <v>259</v>
       </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
       <c r="S28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28">
         <v>1</v>
@@ -4454,11 +4366,8 @@
       <c r="X28">
         <v>1</v>
       </c>
-      <c r="Y28">
-        <v>1</v>
-      </c>
     </row>
-    <row r="29" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>29</v>
       </c>
@@ -4501,21 +4410,21 @@
       <c r="N29" s="11">
         <v>65</v>
       </c>
-      <c r="O29" s="51">
+      <c r="O29" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="P29">
         <v>6</v>
       </c>
-      <c r="P29" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q29">
-        <v>6</v>
+      <c r="Q29" t="s">
+        <v>236</v>
       </c>
       <c r="R29" t="s">
-        <v>236</v>
-      </c>
-      <c r="S29" t="s">
         <v>233</v>
       </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
       <c r="T29">
         <v>1</v>
       </c>
@@ -4531,11 +4440,8 @@
       <c r="X29">
         <v>1</v>
       </c>
-      <c r="Y29">
-        <v>1</v>
-      </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>30</v>
       </c>
@@ -4578,20 +4484,20 @@
       <c r="N30" s="11">
         <v>32</v>
       </c>
-      <c r="O30" s="51">
-        <v>2</v>
-      </c>
-      <c r="P30" s="20" t="s">
+      <c r="O30" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="Q30">
+      <c r="P30">
         <v>10</v>
       </c>
-      <c r="R30" t="s">
+      <c r="Q30" t="s">
         <v>235</v>
       </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
       <c r="S30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30">
         <v>1</v>
@@ -4608,11 +4514,8 @@
       <c r="X30">
         <v>1</v>
       </c>
-      <c r="Y30">
-        <v>1</v>
-      </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>31</v>
       </c>
@@ -4655,20 +4558,20 @@
       <c r="N31" s="11">
         <v>60</v>
       </c>
-      <c r="O31" s="51">
-        <v>5</v>
-      </c>
-      <c r="P31" s="20" t="s">
+      <c r="O31" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="Q31">
+      <c r="P31">
         <v>6</v>
       </c>
-      <c r="R31" t="s">
+      <c r="Q31" t="s">
         <v>236</v>
       </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
       <c r="S31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31">
         <v>1</v>
@@ -4685,11 +4588,8 @@
       <c r="X31">
         <v>1</v>
       </c>
-      <c r="Y31">
-        <v>1</v>
-      </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>32</v>
       </c>
@@ -4732,20 +4632,20 @@
       <c r="N32" s="11">
         <v>70</v>
       </c>
-      <c r="O32" s="51">
+      <c r="O32" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="P32">
         <v>6</v>
       </c>
-      <c r="P32" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q32">
-        <v>6</v>
-      </c>
-      <c r="R32" t="s">
+      <c r="Q32" t="s">
         <v>233</v>
       </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
       <c r="S32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32">
         <v>1</v>
@@ -4762,11 +4662,8 @@
       <c r="X32">
         <v>1</v>
       </c>
-      <c r="Y32">
-        <v>1</v>
-      </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>33</v>
       </c>
@@ -4809,21 +4706,21 @@
       <c r="N33" s="11">
         <v>35</v>
       </c>
-      <c r="O33" s="51">
-        <v>3</v>
-      </c>
-      <c r="P33" s="20" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q33">
+      <c r="O33" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="P33">
         <v>7</v>
       </c>
+      <c r="Q33" t="s">
+        <v>255</v>
+      </c>
       <c r="R33" t="s">
-        <v>255</v>
-      </c>
-      <c r="S33" t="s">
         <v>243</v>
       </c>
+      <c r="S33">
+        <v>2</v>
+      </c>
       <c r="T33">
         <v>2</v>
       </c>
@@ -4839,11 +4736,8 @@
       <c r="X33">
         <v>2</v>
       </c>
-      <c r="Y33">
-        <v>2</v>
-      </c>
     </row>
-    <row r="34" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>34</v>
       </c>
@@ -4886,20 +4780,20 @@
       <c r="N34" s="11">
         <v>55</v>
       </c>
-      <c r="O34" s="51">
+      <c r="O34" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="P34">
         <v>5</v>
       </c>
-      <c r="P34" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q34">
-        <v>5</v>
-      </c>
-      <c r="R34" t="s">
+      <c r="Q34" t="s">
         <v>235</v>
       </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
       <c r="S34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34">
         <v>1</v>
@@ -4916,11 +4810,8 @@
       <c r="X34">
         <v>1</v>
       </c>
-      <c r="Y34">
-        <v>1</v>
-      </c>
     </row>
-    <row r="35" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>35</v>
       </c>
@@ -4963,21 +4854,21 @@
       <c r="N35" s="11">
         <v>50</v>
       </c>
-      <c r="O35" s="51">
-        <v>4</v>
-      </c>
-      <c r="P35" s="20" t="s">
+      <c r="O35" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="Q35">
+      <c r="P35">
         <v>6</v>
       </c>
+      <c r="Q35" t="s">
+        <v>234</v>
+      </c>
       <c r="R35" t="s">
-        <v>234</v>
-      </c>
-      <c r="S35" t="s">
         <v>243</v>
       </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
       <c r="T35">
         <v>1</v>
       </c>
@@ -4993,11 +4884,8 @@
       <c r="X35">
         <v>1</v>
       </c>
-      <c r="Y35">
-        <v>1</v>
-      </c>
     </row>
-    <row r="36" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>36</v>
       </c>
@@ -5040,20 +4928,20 @@
       <c r="N36" s="11">
         <v>50</v>
       </c>
-      <c r="O36" s="51">
-        <v>4</v>
-      </c>
-      <c r="P36" s="20" t="s">
+      <c r="O36" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="Q36">
+      <c r="P36">
         <v>3</v>
       </c>
-      <c r="R36" t="s">
+      <c r="Q36" t="s">
         <v>233</v>
       </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
       <c r="S36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36">
         <v>1</v>
@@ -5070,11 +4958,8 @@
       <c r="X36">
         <v>1</v>
       </c>
-      <c r="Y36">
-        <v>1</v>
-      </c>
     </row>
-    <row r="37" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>37</v>
       </c>
@@ -5117,20 +5002,20 @@
       <c r="N37" s="11">
         <v>47</v>
       </c>
-      <c r="O37" s="51">
+      <c r="O37" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="P37">
         <v>4</v>
       </c>
-      <c r="P37" s="20" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q37">
-        <v>4</v>
-      </c>
-      <c r="R37" t="s">
+      <c r="Q37" t="s">
         <v>233</v>
       </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
       <c r="S37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37">
         <v>1</v>
@@ -5147,11 +5032,8 @@
       <c r="X37">
         <v>1</v>
       </c>
-      <c r="Y37">
-        <v>1</v>
-      </c>
     </row>
-    <row r="38" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>38</v>
       </c>
@@ -5194,20 +5076,20 @@
       <c r="N38" s="11">
         <v>35</v>
       </c>
-      <c r="O38" s="51">
-        <v>3</v>
-      </c>
-      <c r="P38" s="20" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q38">
+      <c r="O38" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="P38">
         <v>7</v>
       </c>
-      <c r="R38" t="s">
+      <c r="Q38" t="s">
         <v>234</v>
       </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
       <c r="S38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38">
         <v>1</v>
@@ -5224,11 +5106,8 @@
       <c r="X38">
         <v>1</v>
       </c>
-      <c r="Y38">
-        <v>1</v>
-      </c>
     </row>
-    <row r="39" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>39</v>
       </c>
@@ -5271,21 +5150,21 @@
       <c r="N39" s="11">
         <v>65</v>
       </c>
-      <c r="O39" s="51">
-        <v>6</v>
-      </c>
-      <c r="P39" s="20" t="s">
+      <c r="O39" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="Q39">
+      <c r="P39">
         <v>3</v>
       </c>
+      <c r="Q39" t="s">
+        <v>233</v>
+      </c>
       <c r="R39" t="s">
-        <v>233</v>
-      </c>
-      <c r="S39" t="s">
         <v>256</v>
       </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
       <c r="T39">
         <v>1</v>
       </c>
@@ -5301,11 +5180,8 @@
       <c r="X39">
         <v>1</v>
       </c>
-      <c r="Y39">
-        <v>1</v>
-      </c>
     </row>
-    <row r="40" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>40</v>
       </c>
@@ -5348,21 +5224,21 @@
       <c r="N40" s="11">
         <v>50</v>
       </c>
-      <c r="O40" s="51">
-        <v>4</v>
-      </c>
-      <c r="P40" s="20" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q40">
+      <c r="O40" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="P40">
         <v>5</v>
       </c>
+      <c r="Q40" t="s">
+        <v>257</v>
+      </c>
       <c r="R40" t="s">
-        <v>257</v>
-      </c>
-      <c r="S40" t="s">
         <v>258</v>
       </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
       <c r="T40">
         <v>1</v>
       </c>
@@ -5378,11 +5254,8 @@
       <c r="X40">
         <v>1</v>
       </c>
-      <c r="Y40">
-        <v>1</v>
-      </c>
     </row>
-    <row r="41" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>41</v>
       </c>
@@ -5425,21 +5298,21 @@
       <c r="N41" s="11">
         <v>45</v>
       </c>
-      <c r="O41" s="51">
-        <v>4</v>
-      </c>
-      <c r="P41" s="20" t="s">
+      <c r="O41" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="Q41">
+      <c r="P41">
         <v>8</v>
       </c>
+      <c r="Q41" t="s">
+        <v>255</v>
+      </c>
       <c r="R41" t="s">
-        <v>255</v>
-      </c>
-      <c r="S41" t="s">
         <v>243</v>
       </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
       <c r="T41">
         <v>1</v>
       </c>
@@ -5455,11 +5328,8 @@
       <c r="X41">
         <v>1</v>
       </c>
-      <c r="Y41">
-        <v>1</v>
-      </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>42</v>
       </c>
@@ -5502,20 +5372,20 @@
       <c r="N42" s="11">
         <v>30</v>
       </c>
-      <c r="O42" s="51">
-        <v>2</v>
-      </c>
-      <c r="P42" s="20" t="s">
+      <c r="O42" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="Q42">
+      <c r="P42">
         <v>5</v>
       </c>
-      <c r="R42" t="s">
+      <c r="Q42" t="s">
         <v>233</v>
       </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
       <c r="S42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42">
         <v>1</v>
@@ -5532,11 +5402,8 @@
       <c r="X42">
         <v>1</v>
       </c>
-      <c r="Y42">
-        <v>1</v>
-      </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>43</v>
       </c>
@@ -5579,20 +5446,20 @@
       <c r="N43" s="11">
         <v>35</v>
       </c>
-      <c r="O43" s="51">
-        <v>3</v>
-      </c>
-      <c r="P43" s="20" t="s">
+      <c r="O43" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="Q43">
+      <c r="P43">
         <v>5</v>
       </c>
-      <c r="R43" t="s">
+      <c r="Q43" t="s">
         <v>233</v>
       </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
       <c r="S43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43">
         <v>1</v>
@@ -5609,11 +5476,8 @@
       <c r="X43">
         <v>1</v>
       </c>
-      <c r="Y43">
-        <v>1</v>
-      </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>44</v>
       </c>
@@ -5656,20 +5520,20 @@
       <c r="N44" s="11">
         <v>36</v>
       </c>
-      <c r="O44" s="51">
-        <v>3</v>
-      </c>
-      <c r="P44" s="20" t="s">
+      <c r="O44" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="Q44">
+      <c r="P44">
         <v>6</v>
       </c>
-      <c r="R44" t="s">
+      <c r="Q44" t="s">
         <v>233</v>
       </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
       <c r="S44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T44">
         <v>2</v>
@@ -5686,11 +5550,8 @@
       <c r="X44">
         <v>2</v>
       </c>
-      <c r="Y44">
-        <v>2</v>
-      </c>
     </row>
-    <row r="45" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>45</v>
       </c>
@@ -5733,20 +5594,20 @@
       <c r="N45" s="11">
         <v>27</v>
       </c>
-      <c r="O45" s="51">
-        <v>2</v>
-      </c>
-      <c r="P45" s="20" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q45">
+      <c r="O45" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="P45">
         <v>5</v>
       </c>
-      <c r="R45" t="s">
+      <c r="Q45" t="s">
         <v>233</v>
       </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
       <c r="S45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T45">
         <v>2</v>
@@ -5763,11 +5624,8 @@
       <c r="X45">
         <v>2</v>
       </c>
-      <c r="Y45">
-        <v>2</v>
-      </c>
     </row>
-    <row r="46" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>46</v>
       </c>
@@ -5810,20 +5668,20 @@
       <c r="N46" s="11">
         <v>24</v>
       </c>
-      <c r="O46" s="51">
-        <v>1</v>
-      </c>
-      <c r="P46" s="20" t="s">
+      <c r="O46" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="Q46">
+      <c r="P46">
         <v>6</v>
       </c>
-      <c r="R46" t="s">
+      <c r="Q46" t="s">
         <v>233</v>
       </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
       <c r="S46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T46">
         <v>2</v>
@@ -5840,11 +5698,8 @@
       <c r="X46">
         <v>2</v>
       </c>
-      <c r="Y46">
-        <v>2</v>
-      </c>
     </row>
-    <row r="47" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>47</v>
       </c>
@@ -5887,20 +5742,20 @@
       <c r="N47" s="11">
         <v>65</v>
       </c>
-      <c r="O47" s="51">
-        <v>6</v>
-      </c>
-      <c r="P47" s="20" t="s">
+      <c r="O47" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="Q47">
+      <c r="P47">
         <v>4</v>
       </c>
-      <c r="R47" t="s">
+      <c r="Q47" t="s">
         <v>233</v>
       </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
       <c r="S47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47">
         <v>1</v>
@@ -5917,11 +5772,8 @@
       <c r="X47">
         <v>1</v>
       </c>
-      <c r="Y47">
-        <v>1</v>
-      </c>
     </row>
-    <row r="48" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>48</v>
       </c>
@@ -5964,20 +5816,20 @@
       <c r="N48" s="11">
         <v>62</v>
       </c>
-      <c r="O48" s="51">
-        <v>5</v>
-      </c>
-      <c r="P48" s="20" t="s">
+      <c r="O48" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="Q48">
+      <c r="P48">
         <v>8</v>
       </c>
-      <c r="R48" t="s">
+      <c r="Q48" t="s">
         <v>233</v>
       </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
       <c r="S48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48">
         <v>1</v>
@@ -5994,11 +5846,8 @@
       <c r="X48">
         <v>1</v>
       </c>
-      <c r="Y48">
-        <v>1</v>
-      </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>49</v>
       </c>
@@ -6041,20 +5890,20 @@
       <c r="N49" s="11">
         <v>45</v>
       </c>
-      <c r="O49" s="51">
-        <v>4</v>
-      </c>
-      <c r="P49" s="29" t="s">
+      <c r="O49" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="Q49">
+      <c r="P49">
         <v>6</v>
       </c>
-      <c r="R49" t="s">
+      <c r="Q49" t="s">
         <v>233</v>
       </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
       <c r="S49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49">
         <v>1</v>
@@ -6071,11 +5920,8 @@
       <c r="X49">
         <v>1</v>
       </c>
-      <c r="Y49">
-        <v>1</v>
-      </c>
     </row>
-    <row r="50" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>50</v>
       </c>
@@ -6118,20 +5964,20 @@
       <c r="N50" s="11">
         <v>65</v>
       </c>
-      <c r="O50" s="51">
-        <v>6</v>
-      </c>
-      <c r="P50" s="20" t="s">
+      <c r="O50" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="Q50">
+      <c r="P50">
         <v>5</v>
       </c>
-      <c r="R50" t="s">
+      <c r="Q50" t="s">
         <v>237</v>
       </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
       <c r="S50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T50">
         <v>2</v>
@@ -6148,11 +5994,8 @@
       <c r="X50">
         <v>2</v>
       </c>
-      <c r="Y50">
-        <v>2</v>
-      </c>
     </row>
-    <row r="51" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>51</v>
       </c>
@@ -6195,20 +6038,20 @@
       <c r="N51" s="11">
         <v>20</v>
       </c>
-      <c r="O51" s="51">
-        <v>1</v>
-      </c>
-      <c r="P51" s="20" t="s">
+      <c r="O51" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="Q51">
-        <v>2</v>
-      </c>
-      <c r="R51" t="s">
+      <c r="P51">
+        <v>2</v>
+      </c>
+      <c r="Q51" t="s">
         <v>233</v>
       </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
       <c r="S51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T51">
         <v>1</v>
@@ -6225,11 +6068,8 @@
       <c r="X51">
         <v>1</v>
       </c>
-      <c r="Y51">
-        <v>1</v>
-      </c>
     </row>
-    <row r="52" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>52</v>
       </c>
@@ -6272,20 +6112,20 @@
       <c r="N52" s="11">
         <v>18</v>
       </c>
-      <c r="O52" s="51">
-        <v>1</v>
-      </c>
-      <c r="P52" s="20" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q52">
+      <c r="O52" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="P52">
         <v>5</v>
       </c>
-      <c r="R52" t="s">
+      <c r="Q52" t="s">
         <v>233</v>
       </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
       <c r="S52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T52">
         <v>4</v>
@@ -6302,11 +6142,8 @@
       <c r="X52">
         <v>4</v>
       </c>
-      <c r="Y52">
-        <v>4</v>
-      </c>
     </row>
-    <row r="53" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>53</v>
       </c>
@@ -6349,20 +6186,20 @@
       <c r="N53" s="11">
         <v>40</v>
       </c>
-      <c r="O53" s="51">
-        <v>3</v>
-      </c>
-      <c r="P53" s="20" t="s">
+      <c r="O53" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="Q53">
+      <c r="P53">
         <v>5</v>
       </c>
-      <c r="R53" t="s">
+      <c r="Q53" t="s">
         <v>233</v>
       </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
       <c r="S53">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="T53">
         <v>99</v>
@@ -6379,11 +6216,8 @@
       <c r="X53">
         <v>99</v>
       </c>
-      <c r="Y53">
-        <v>99</v>
-      </c>
     </row>
-    <row r="54" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>54</v>
       </c>
@@ -6426,20 +6260,20 @@
       <c r="N54" s="11">
         <v>36</v>
       </c>
-      <c r="O54" s="51">
-        <v>3</v>
-      </c>
-      <c r="P54" s="20" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q54">
+      <c r="O54" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="P54">
         <v>5</v>
       </c>
-      <c r="R54" t="s">
+      <c r="Q54" t="s">
         <v>237</v>
       </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
       <c r="S54">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="T54">
         <v>99</v>
@@ -6456,11 +6290,8 @@
       <c r="X54">
         <v>99</v>
       </c>
-      <c r="Y54">
-        <v>99</v>
-      </c>
     </row>
-    <row r="55" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>55</v>
       </c>
@@ -6503,20 +6334,20 @@
       <c r="N55" s="11">
         <v>57</v>
       </c>
-      <c r="O55" s="51">
-        <v>5</v>
-      </c>
-      <c r="P55" s="20" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q55">
+      <c r="O55" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="P55">
         <v>6</v>
       </c>
-      <c r="R55" t="s">
+      <c r="Q55" t="s">
         <v>233</v>
       </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
       <c r="S55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T55">
         <v>2</v>
@@ -6533,11 +6364,8 @@
       <c r="X55">
         <v>2</v>
       </c>
-      <c r="Y55">
-        <v>2</v>
-      </c>
     </row>
-    <row r="56" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>56</v>
       </c>
@@ -6580,20 +6408,20 @@
       <c r="N56" s="11">
         <v>55</v>
       </c>
-      <c r="O56" s="51">
+      <c r="O56" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="P56">
         <v>5</v>
       </c>
-      <c r="P56" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q56">
-        <v>5</v>
-      </c>
-      <c r="R56" t="s">
+      <c r="Q56" t="s">
         <v>237</v>
       </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
       <c r="S56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T56">
         <v>2</v>
@@ -6610,11 +6438,8 @@
       <c r="X56">
         <v>2</v>
       </c>
-      <c r="Y56">
-        <v>2</v>
-      </c>
     </row>
-    <row r="57" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>57</v>
       </c>
@@ -6657,20 +6482,20 @@
       <c r="N57" s="11">
         <v>41</v>
       </c>
-      <c r="O57" s="51">
-        <v>3</v>
-      </c>
-      <c r="P57" s="20" t="s">
+      <c r="O57" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="Q57">
+      <c r="P57">
         <v>18</v>
       </c>
-      <c r="R57" t="s">
+      <c r="Q57" t="s">
         <v>237</v>
       </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
       <c r="S57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T57">
         <v>1</v>
@@ -6687,11 +6512,8 @@
       <c r="X57">
         <v>1</v>
       </c>
-      <c r="Y57">
-        <v>1</v>
-      </c>
     </row>
-    <row r="58" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>58</v>
       </c>
@@ -6734,20 +6556,20 @@
       <c r="N58" s="11">
         <v>63</v>
       </c>
-      <c r="O58" s="51">
-        <v>5</v>
-      </c>
-      <c r="P58" s="20" t="s">
+      <c r="O58" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="Q58">
+      <c r="P58">
         <v>8</v>
       </c>
-      <c r="R58" t="s">
+      <c r="Q58" t="s">
         <v>233</v>
       </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
       <c r="S58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T58">
         <v>2</v>
@@ -6764,11 +6586,8 @@
       <c r="X58">
         <v>2</v>
       </c>
-      <c r="Y58">
-        <v>2</v>
-      </c>
     </row>
-    <row r="59" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>59</v>
       </c>
@@ -6811,20 +6630,20 @@
       <c r="N59" s="11">
         <v>75</v>
       </c>
-      <c r="O59" s="51">
-        <v>7</v>
-      </c>
-      <c r="P59" s="20" t="s">
+      <c r="O59" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="Q59">
+      <c r="P59">
         <v>16</v>
       </c>
-      <c r="R59" t="s">
+      <c r="Q59" t="s">
         <v>233</v>
       </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
       <c r="S59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T59">
         <v>2</v>
@@ -6841,11 +6660,8 @@
       <c r="X59">
         <v>2</v>
       </c>
-      <c r="Y59">
-        <v>2</v>
-      </c>
     </row>
-    <row r="60" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>60</v>
       </c>
@@ -6888,20 +6704,20 @@
       <c r="N60" s="11">
         <v>70</v>
       </c>
-      <c r="O60" s="51">
-        <v>6</v>
-      </c>
-      <c r="P60" s="20" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q60">
+      <c r="O60" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="P60">
         <v>9</v>
       </c>
-      <c r="R60" t="s">
+      <c r="Q60" t="s">
         <v>233</v>
       </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
       <c r="S60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T60">
         <v>2</v>
@@ -6918,11 +6734,8 @@
       <c r="X60">
         <v>2</v>
       </c>
-      <c r="Y60">
-        <v>2</v>
-      </c>
     </row>
-    <row r="61" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>61</v>
       </c>
@@ -6965,21 +6778,21 @@
       <c r="N61" s="11">
         <v>45</v>
       </c>
-      <c r="O61" s="51">
-        <v>4</v>
-      </c>
-      <c r="P61" s="20" t="s">
+      <c r="O61" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="Q61">
+      <c r="P61">
         <v>7</v>
       </c>
+      <c r="Q61" t="s">
+        <v>233</v>
+      </c>
       <c r="R61" t="s">
-        <v>233</v>
-      </c>
-      <c r="S61" t="s">
         <v>236</v>
       </c>
+      <c r="S61">
+        <v>2</v>
+      </c>
       <c r="T61">
         <v>2</v>
       </c>
@@ -6995,11 +6808,8 @@
       <c r="X61">
         <v>2</v>
       </c>
-      <c r="Y61">
-        <v>2</v>
-      </c>
     </row>
-    <row r="62" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>62</v>
       </c>
@@ -7042,20 +6852,20 @@
       <c r="N62" s="11">
         <v>58</v>
       </c>
-      <c r="O62" s="51">
-        <v>5</v>
-      </c>
-      <c r="P62" s="20" t="s">
+      <c r="O62" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="Q62">
+      <c r="P62">
         <v>6</v>
       </c>
-      <c r="R62" t="s">
+      <c r="Q62" t="s">
         <v>237</v>
       </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
       <c r="S62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T62">
         <v>2</v>
@@ -7072,11 +6882,8 @@
       <c r="X62">
         <v>2</v>
       </c>
-      <c r="Y62">
-        <v>2</v>
-      </c>
     </row>
-    <row r="63" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>63</v>
       </c>
@@ -7119,20 +6926,20 @@
       <c r="N63" s="11">
         <v>48</v>
       </c>
-      <c r="O63" s="51">
-        <v>4</v>
-      </c>
-      <c r="P63" s="20" t="s">
+      <c r="O63" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="Q63">
+      <c r="P63">
         <v>5</v>
       </c>
-      <c r="R63" t="s">
+      <c r="Q63" t="s">
         <v>233</v>
       </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
       <c r="S63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T63">
         <v>2</v>
@@ -7149,11 +6956,8 @@
       <c r="X63">
         <v>2</v>
       </c>
-      <c r="Y63">
-        <v>2</v>
-      </c>
     </row>
-    <row r="64" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>64</v>
       </c>
@@ -7196,20 +7000,20 @@
       <c r="N64" s="11">
         <v>39</v>
       </c>
-      <c r="O64" s="51">
-        <v>3</v>
-      </c>
-      <c r="P64" s="20" t="s">
+      <c r="O64" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="Q64">
+      <c r="P64">
         <v>5</v>
       </c>
-      <c r="R64" t="s">
+      <c r="Q64" t="s">
         <v>237</v>
       </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
       <c r="S64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T64">
         <v>2</v>
@@ -7224,9 +7028,6 @@
         <v>2</v>
       </c>
       <c r="X64">
-        <v>2</v>
-      </c>
-      <c r="Y64">
         <v>2</v>
       </c>
     </row>
@@ -7272,11 +7073,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="48" t="s">
+        <v>536</v>
+      </c>
+      <c r="J1" s="48" t="s">
         <v>537</v>
-      </c>
-      <c r="J1" s="50" t="s">
-        <v>538</v>
       </c>
       <c r="K1" t="s">
         <v>9</v>
@@ -7291,28 +7092,28 @@
         <v>12</v>
       </c>
       <c r="O1" t="s">
+        <v>476</v>
+      </c>
+      <c r="P1" t="s">
         <v>477</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>478</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>479</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>480</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>481</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>482</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>483</v>
-      </c>
-      <c r="V1" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
@@ -7326,7 +7127,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -7356,13 +7157,13 @@
         <v>56</v>
       </c>
       <c r="O2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="P2">
         <v>9</v>
       </c>
       <c r="Q2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="R2">
         <v>0.1</v>
@@ -7371,10 +7172,10 @@
         <v>50</v>
       </c>
       <c r="T2" t="s">
+        <v>486</v>
+      </c>
+      <c r="U2" t="s">
         <v>487</v>
-      </c>
-      <c r="U2" t="s">
-        <v>488</v>
       </c>
       <c r="V2" t="s">
         <v>406</v>
@@ -7391,7 +7192,7 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -7421,13 +7222,13 @@
         <v>40</v>
       </c>
       <c r="O3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="P3">
         <v>5</v>
       </c>
       <c r="Q3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="R3">
         <v>0.1</v>
@@ -7436,10 +7237,10 @@
         <v>50</v>
       </c>
       <c r="T3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="U3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V3" t="s">
         <v>406</v>
@@ -7456,7 +7257,7 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -7486,13 +7287,13 @@
         <v>40</v>
       </c>
       <c r="O4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="P4">
         <v>5</v>
       </c>
       <c r="Q4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="R4">
         <v>0.09</v>
@@ -7501,10 +7302,10 @@
         <v>20</v>
       </c>
       <c r="T4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="U4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V4" t="s">
         <v>406</v>
@@ -7551,13 +7352,13 @@
         <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="P5">
         <v>40</v>
       </c>
       <c r="Q5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="R5">
         <v>0.18</v>
@@ -7566,10 +7367,10 @@
         <v>5</v>
       </c>
       <c r="T5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="U5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V5" t="s">
         <v>406</v>
@@ -7616,13 +7417,13 @@
         <v>45</v>
       </c>
       <c r="O6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="P6">
         <v>30</v>
       </c>
       <c r="Q6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="R6">
         <v>0.9</v>
@@ -7631,10 +7432,10 @@
         <v>10</v>
       </c>
       <c r="T6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="U6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V6" t="s">
         <v>407</v>
@@ -7651,7 +7452,7 @@
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
@@ -7681,13 +7482,13 @@
         <v>55</v>
       </c>
       <c r="O7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="P7">
         <v>30</v>
       </c>
       <c r="Q7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="R7">
         <v>9.5000000000000001E-2</v>
@@ -7696,10 +7497,10 @@
         <v>95</v>
       </c>
       <c r="T7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="U7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V7" t="s">
         <v>407</v>
@@ -7716,7 +7517,7 @@
         <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -7746,13 +7547,13 @@
         <v>70</v>
       </c>
       <c r="O8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="P8">
         <v>25</v>
       </c>
       <c r="Q8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="R8">
         <v>0.09</v>
@@ -7764,7 +7565,7 @@
         <v>363</v>
       </c>
       <c r="U8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V8" t="s">
         <v>406</v>
@@ -7811,13 +7612,13 @@
         <v>50</v>
       </c>
       <c r="O9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="P9">
         <v>25</v>
       </c>
       <c r="Q9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="R9">
         <v>4.4999999999999998E-2</v>
@@ -7829,7 +7630,7 @@
         <v>363</v>
       </c>
       <c r="U9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V9" t="s">
         <v>406</v>
@@ -7846,7 +7647,7 @@
         <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F10" t="s">
         <v>43</v>
@@ -7876,7 +7677,7 @@
         <v>53</v>
       </c>
       <c r="O10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="P10">
         <v>4</v>
@@ -7891,10 +7692,10 @@
         <v>20</v>
       </c>
       <c r="T10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="U10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V10" t="s">
         <v>406</v>
@@ -7941,7 +7742,7 @@
         <v>32</v>
       </c>
       <c r="O11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="P11">
         <v>7</v>
@@ -7956,10 +7757,10 @@
         <v>95</v>
       </c>
       <c r="T11" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="U11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V11" t="s">
         <v>407</v>
@@ -8006,7 +7807,7 @@
         <v>53</v>
       </c>
       <c r="O12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="P12">
         <v>15</v>
@@ -8024,7 +7825,7 @@
         <v>363</v>
       </c>
       <c r="U12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V12" t="s">
         <v>407</v>
@@ -8071,7 +7872,7 @@
         <v>59</v>
       </c>
       <c r="O13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="P13">
         <v>5</v>
@@ -8089,7 +7890,7 @@
         <v>363</v>
       </c>
       <c r="U13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V13" t="s">
         <v>407</v>
@@ -8136,7 +7937,7 @@
         <v>34</v>
       </c>
       <c r="O14" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="P14">
         <v>12</v>
@@ -8154,7 +7955,7 @@
         <v>363</v>
       </c>
       <c r="U14" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="V14" t="s">
         <v>407</v>
@@ -8201,7 +8002,7 @@
         <v>56</v>
       </c>
       <c r="O15" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="P15">
         <v>4</v>
@@ -8219,7 +8020,7 @@
         <v>363</v>
       </c>
       <c r="U15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V15" t="s">
         <v>406</v>
@@ -8266,7 +8067,7 @@
         <v>50</v>
       </c>
       <c r="O16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P16">
         <v>8</v>
@@ -8281,10 +8082,10 @@
         <v>1</v>
       </c>
       <c r="T16" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="U16" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V16" t="s">
         <v>407</v>
@@ -8331,7 +8132,7 @@
         <v>45</v>
       </c>
       <c r="O17" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P17">
         <v>5</v>
@@ -8349,7 +8150,7 @@
         <v>377</v>
       </c>
       <c r="U17" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V17" t="s">
         <v>406</v>
@@ -8366,7 +8167,7 @@
         <v>82</v>
       </c>
       <c r="E18" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F18" t="s">
         <v>69</v>
@@ -8396,7 +8197,7 @@
         <v>89</v>
       </c>
       <c r="O18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P18">
         <v>31</v>
@@ -8414,7 +8215,7 @@
         <v>363</v>
       </c>
       <c r="U18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V18" t="s">
         <v>406</v>
@@ -8461,13 +8262,13 @@
         <v>67</v>
       </c>
       <c r="O19" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="P19">
         <v>15</v>
       </c>
       <c r="Q19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="R19">
         <v>0.02</v>
@@ -8479,7 +8280,7 @@
         <v>363</v>
       </c>
       <c r="U19" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V19" t="s">
         <v>407</v>
@@ -8526,13 +8327,13 @@
         <v>60</v>
       </c>
       <c r="O20" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="P20">
         <v>10</v>
       </c>
       <c r="Q20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="R20">
         <v>0.8</v>
@@ -8541,10 +8342,10 @@
         <v>50</v>
       </c>
       <c r="T20" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="U20" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V20" t="s">
         <v>407</v>
@@ -8591,13 +8392,13 @@
         <v>70</v>
       </c>
       <c r="O21" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="P21">
         <v>8</v>
       </c>
       <c r="Q21" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="R21">
         <v>0.02</v>
@@ -8609,7 +8410,7 @@
         <v>363</v>
       </c>
       <c r="U21" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V21" t="s">
         <v>406</v>
@@ -8656,13 +8457,13 @@
         <v>55</v>
       </c>
       <c r="O22" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="P22">
         <v>10</v>
       </c>
       <c r="Q22" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="R22">
         <v>0.4</v>
@@ -8674,7 +8475,7 @@
         <v>363</v>
       </c>
       <c r="U22" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="V22" t="s">
         <v>406</v>
@@ -8721,13 +8522,13 @@
         <v>65</v>
       </c>
       <c r="O23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P23">
         <v>30</v>
       </c>
       <c r="Q23" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="R23">
         <v>0.05</v>
@@ -8736,10 +8537,10 @@
         <v>20</v>
       </c>
       <c r="T23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="U23" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V23" t="s">
         <v>406</v>
@@ -8792,13 +8593,13 @@
         <v>32</v>
       </c>
       <c r="O24" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P24">
         <v>3</v>
       </c>
       <c r="Q24" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="R24">
         <v>0.09</v>
@@ -8807,10 +8608,10 @@
         <v>5</v>
       </c>
       <c r="T24" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="U24" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V24" t="s">
         <v>406</v>
@@ -8863,13 +8664,13 @@
         <v>60</v>
       </c>
       <c r="O25" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P25">
         <v>30</v>
       </c>
       <c r="Q25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="R25">
         <v>0.01</v>
@@ -8878,10 +8679,10 @@
         <v>50</v>
       </c>
       <c r="T25" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="U25" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V25" t="s">
         <v>406</v>
@@ -8934,13 +8735,13 @@
         <v>70</v>
       </c>
       <c r="O26" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P26">
         <v>40</v>
       </c>
       <c r="Q26" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="R26">
         <v>0.09</v>
@@ -8949,10 +8750,10 @@
         <v>20</v>
       </c>
       <c r="T26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="U26" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V26" t="s">
         <v>406</v>
@@ -9005,13 +8806,13 @@
         <v>35</v>
       </c>
       <c r="O27" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P27">
         <v>2</v>
       </c>
       <c r="Q27" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="R27">
         <v>0.09</v>
@@ -9020,10 +8821,10 @@
         <v>40</v>
       </c>
       <c r="T27" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="U27" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V27" t="s">
         <v>406</v>
@@ -9076,13 +8877,13 @@
         <v>55</v>
       </c>
       <c r="O28" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P28">
         <v>40</v>
       </c>
       <c r="Q28" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="R28">
         <v>0.03</v>
@@ -9091,10 +8892,10 @@
         <v>30</v>
       </c>
       <c r="T28" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="U28" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V28" t="s">
         <v>406</v>
@@ -9147,13 +8948,13 @@
         <v>50</v>
       </c>
       <c r="O29" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P29">
         <v>5</v>
       </c>
       <c r="Q29" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="R29">
         <v>5.0000000000000001E-3</v>
@@ -9162,10 +8963,10 @@
         <v>20</v>
       </c>
       <c r="T29" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="U29" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V29" t="s">
         <v>406</v>
@@ -9218,13 +9019,13 @@
         <v>47</v>
       </c>
       <c r="O30" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P30">
         <v>5</v>
       </c>
       <c r="Q30" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="R30">
         <v>0.02</v>
@@ -9233,10 +9034,10 @@
         <v>5</v>
       </c>
       <c r="T30" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="U30" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V30" t="s">
         <v>406</v>
@@ -9289,13 +9090,13 @@
         <v>35</v>
       </c>
       <c r="O31" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P31">
         <v>5</v>
       </c>
       <c r="Q31" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="R31">
         <v>0.02</v>
@@ -9304,10 +9105,10 @@
         <v>5</v>
       </c>
       <c r="T31" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="U31" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V31" t="s">
         <v>406</v>
@@ -9360,13 +9161,13 @@
         <v>65</v>
       </c>
       <c r="O32" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P32">
         <v>25</v>
       </c>
       <c r="Q32" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="R32">
         <v>0.1</v>
@@ -9375,10 +9176,10 @@
         <v>1</v>
       </c>
       <c r="T32" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="U32" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V32" t="s">
         <v>406</v>
@@ -9431,13 +9232,13 @@
         <v>50</v>
       </c>
       <c r="O33" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P33">
         <v>5</v>
       </c>
       <c r="Q33" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="R33">
         <v>0.3</v>
@@ -9446,10 +9247,10 @@
         <v>30</v>
       </c>
       <c r="T33" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="U33" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V33" t="s">
         <v>406</v>
@@ -9502,13 +9303,13 @@
         <v>45</v>
       </c>
       <c r="O34" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P34">
         <v>9</v>
       </c>
       <c r="Q34" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="R34">
         <v>5.0000000000000001E-3</v>
@@ -9517,10 +9318,10 @@
         <v>20</v>
       </c>
       <c r="T34" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="U34" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V34" t="s">
         <v>406</v>
@@ -9573,13 +9374,13 @@
         <v>30</v>
       </c>
       <c r="O35" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P35">
         <v>5</v>
       </c>
       <c r="Q35" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="R35">
         <v>0.1</v>
@@ -9588,10 +9389,10 @@
         <v>1</v>
       </c>
       <c r="T35" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="U35" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V35" t="s">
         <v>406</v>
@@ -9644,13 +9445,13 @@
         <v>35</v>
       </c>
       <c r="O36" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P36">
         <v>4</v>
       </c>
       <c r="Q36" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="R36">
         <v>0.18</v>
@@ -9659,10 +9460,10 @@
         <v>30</v>
       </c>
       <c r="T36" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="U36" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V36" t="s">
         <v>406</v>
@@ -9715,13 +9516,13 @@
         <v>36</v>
       </c>
       <c r="O37" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P37">
         <v>4</v>
       </c>
       <c r="Q37" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="R37">
         <v>4.4999999999999998E-2</v>
@@ -9733,7 +9534,7 @@
         <v>363</v>
       </c>
       <c r="U37" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V37" t="s">
         <v>406</v>
@@ -9786,7 +9587,7 @@
         <v>24</v>
       </c>
       <c r="O38" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P38">
         <v>15</v>
@@ -9801,10 +9602,10 @@
         <v>80</v>
       </c>
       <c r="T38" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="U38" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V38" t="s">
         <v>406</v>
@@ -9857,7 +9658,7 @@
         <v>65</v>
       </c>
       <c r="O39" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P39">
         <v>10</v>
@@ -9872,10 +9673,10 @@
         <v>40</v>
       </c>
       <c r="T39" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="U39" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V39" t="s">
         <v>406</v>
@@ -9928,7 +9729,7 @@
         <v>62</v>
       </c>
       <c r="O40" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P40">
         <v>5</v>
@@ -9943,10 +9744,10 @@
         <v>33</v>
       </c>
       <c r="T40" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="U40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V40" t="s">
         <v>406</v>
@@ -9999,7 +9800,7 @@
         <v>45</v>
       </c>
       <c r="O41" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P41">
         <v>10</v>
@@ -10014,10 +9815,10 @@
         <v>33</v>
       </c>
       <c r="T41" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="U41" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V41" t="s">
         <v>406</v>
@@ -10070,7 +9871,7 @@
         <v>65</v>
       </c>
       <c r="O42" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P42">
         <v>5</v>
@@ -10085,10 +9886,10 @@
         <v>40</v>
       </c>
       <c r="T42" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="U42" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V42" t="s">
         <v>407</v>
@@ -10141,7 +9942,7 @@
         <v>20</v>
       </c>
       <c r="O43" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P43">
         <v>2</v>
@@ -10156,10 +9957,10 @@
         <v>30</v>
       </c>
       <c r="T43" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="U43" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V43" t="s">
         <v>407</v>
@@ -10212,7 +10013,7 @@
         <v>40</v>
       </c>
       <c r="O44" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P44">
         <v>21</v>
@@ -10227,10 +10028,10 @@
         <v>75</v>
       </c>
       <c r="T44" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="U44" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V44" t="s">
         <v>407</v>
@@ -10283,7 +10084,7 @@
         <v>36</v>
       </c>
       <c r="O45" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P45">
         <v>21</v>
@@ -10298,10 +10099,10 @@
         <v>80</v>
       </c>
       <c r="T45" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="U45" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V45" t="s">
         <v>406</v>
@@ -10354,7 +10155,7 @@
         <v>57</v>
       </c>
       <c r="O46" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P46">
         <v>5</v>
@@ -10369,10 +10170,10 @@
         <v>10</v>
       </c>
       <c r="T46" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="U46" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V46" t="s">
         <v>406</v>
@@ -10425,7 +10226,7 @@
         <v>55</v>
       </c>
       <c r="O47" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P47">
         <v>12</v>
@@ -10440,10 +10241,10 @@
         <v>20</v>
       </c>
       <c r="T47" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="U47" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V47" t="s">
         <v>406</v>
@@ -10496,7 +10297,7 @@
         <v>41</v>
       </c>
       <c r="O48" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P48">
         <v>15</v>
@@ -10511,10 +10312,10 @@
         <v>5</v>
       </c>
       <c r="T48" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="U48" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V48" t="s">
         <v>406</v>
@@ -10567,7 +10368,7 @@
         <v>63</v>
       </c>
       <c r="O49" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P49">
         <v>43</v>
@@ -10582,10 +10383,10 @@
         <v>80</v>
       </c>
       <c r="T49" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="U49" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V49" t="s">
         <v>406</v>
@@ -10638,7 +10439,7 @@
         <v>75</v>
       </c>
       <c r="O50" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P50">
         <v>45</v>
@@ -10653,10 +10454,10 @@
         <v>90</v>
       </c>
       <c r="T50" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="U50" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V50" t="s">
         <v>406</v>
@@ -10709,7 +10510,7 @@
         <v>70</v>
       </c>
       <c r="O51" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P51">
         <v>45</v>
@@ -10724,10 +10525,10 @@
         <v>90</v>
       </c>
       <c r="T51" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="U51" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V51" t="s">
         <v>406</v>
@@ -10780,7 +10581,7 @@
         <v>45</v>
       </c>
       <c r="O52" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P52">
         <v>8</v>
@@ -10795,10 +10596,10 @@
         <v>90</v>
       </c>
       <c r="T52" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="U52" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V52" t="s">
         <v>407</v>
@@ -10851,7 +10652,7 @@
         <v>58</v>
       </c>
       <c r="O53" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P53">
         <v>20</v>
@@ -10866,10 +10667,10 @@
         <v>70</v>
       </c>
       <c r="T53" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="U53" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V53" t="s">
         <v>406</v>
@@ -10922,7 +10723,7 @@
         <v>48</v>
       </c>
       <c r="O54" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P54">
         <v>10</v>
@@ -10937,10 +10738,10 @@
         <v>70</v>
       </c>
       <c r="T54" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="U54" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V54" t="s">
         <v>406</v>
@@ -10961,8 +10762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL64"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AQ1" sqref="AQ1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11005,11 +10806,11 @@
       <c r="H1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="48" t="s">
+        <v>536</v>
+      </c>
+      <c r="J1" s="48" t="s">
         <v>537</v>
-      </c>
-      <c r="J1" s="50" t="s">
-        <v>538</v>
       </c>
       <c r="K1" s="32" t="s">
         <v>9</v>
@@ -11131,7 +10932,7 @@
         <v>262.11297999999999</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M2" t="s">
         <v>287</v>
@@ -11206,7 +11007,7 @@
         <v>2</v>
       </c>
       <c r="AL2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
@@ -11244,7 +11045,7 @@
         <v>222.8452494</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M3" t="s">
         <v>287</v>
@@ -11319,7 +11120,7 @@
         <v>2</v>
       </c>
       <c r="AL3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
@@ -11357,7 +11158,7 @@
         <v>254.18005959999999</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M4" t="s">
         <v>284</v>
@@ -11432,7 +11233,7 @@
         <v>1</v>
       </c>
       <c r="AL4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="45" x14ac:dyDescent="0.25">
@@ -11470,7 +11271,7 @@
         <v>137.0534126</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="M5" s="41" t="s">
         <v>288</v>
@@ -11533,7 +11334,7 @@
         <v>2</v>
       </c>
       <c r="AH5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AI5">
         <v>2</v>
@@ -11545,7 +11346,7 @@
         <v>2</v>
       </c>
       <c r="AL5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:38" ht="45" x14ac:dyDescent="0.25">
@@ -11583,7 +11384,7 @@
         <v>350.97296460000001</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="M6" s="41" t="s">
         <v>289</v>
@@ -11658,7 +11459,7 @@
         <v>1</v>
       </c>
       <c r="AL6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="30" x14ac:dyDescent="0.25">
@@ -11696,7 +11497,7 @@
         <v>347.4895191</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="M7" t="s">
         <v>287</v>
@@ -11705,7 +11506,7 @@
         <v>285</v>
       </c>
       <c r="O7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P7" t="s">
         <v>317</v>
@@ -11771,7 +11572,7 @@
         <v>1</v>
       </c>
       <c r="AL7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="30" x14ac:dyDescent="0.25">
@@ -11809,7 +11610,7 @@
         <v>348.40469519999999</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="M8" t="s">
         <v>287</v>
@@ -11922,7 +11723,7 @@
         <v>351.41592589999999</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>431</v>
+        <v>538</v>
       </c>
       <c r="M9" s="41" t="s">
         <v>288</v>
@@ -12035,7 +11836,7 @@
         <v>346.33139999999997</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="M10" t="s">
         <v>286</v>
@@ -12148,7 +11949,7 @@
         <v>562.48781320000001</v>
       </c>
       <c r="L11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="M11" s="41" t="s">
         <v>295</v>
@@ -12223,7 +12024,7 @@
         <v>1</v>
       </c>
       <c r="AL11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
@@ -12261,7 +12062,7 @@
         <v>565.17999999999995</v>
       </c>
       <c r="L12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="M12" t="s">
         <v>295</v>
@@ -12374,7 +12175,7 @@
         <v>562.62144560000002</v>
       </c>
       <c r="L13" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="M13" t="s">
         <v>309</v>
@@ -12449,7 +12250,7 @@
         <v>1</v>
       </c>
       <c r="AL13" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
@@ -12487,7 +12288,7 @@
         <v>552.81183450000003</v>
       </c>
       <c r="L14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M14" t="s">
         <v>296</v>
@@ -12600,7 +12401,7 @@
         <v>553.31475450000005</v>
       </c>
       <c r="L15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M15" t="s">
         <v>310</v>
@@ -12713,7 +12514,7 @@
         <v>419.95606720000001</v>
       </c>
       <c r="L16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M16" t="s">
         <v>376</v>
@@ -12826,7 +12627,7 @@
         <v>414.038365</v>
       </c>
       <c r="L17" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M17" t="s">
         <v>376</v>
@@ -12939,7 +12740,7 @@
         <v>421.49562250000002</v>
       </c>
       <c r="L18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="M18" t="s">
         <v>297</v>
@@ -13127,7 +12928,7 @@
         <v>1</v>
       </c>
       <c r="AL19" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.25">
@@ -13165,7 +12966,7 @@
         <v>335.26</v>
       </c>
       <c r="L20" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M20" t="s">
         <v>376</v>
@@ -13278,7 +13079,7 @@
         <v>349.38920159999998</v>
       </c>
       <c r="L21" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M21" t="s">
         <v>311</v>
@@ -13353,7 +13154,7 @@
         <v>1</v>
       </c>
       <c r="AL21" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.25">
@@ -13391,7 +13192,7 @@
         <v>349.38920159999998</v>
       </c>
       <c r="L22" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M22" t="s">
         <v>311</v>
@@ -13504,7 +13305,7 @@
         <v>323.38337999999999</v>
       </c>
       <c r="L23" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M23" t="s">
         <v>311</v>
@@ -13579,7 +13380,7 @@
         <v>2</v>
       </c>
       <c r="AL23" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
@@ -13617,7 +13418,7 @@
         <v>323.38337999999999</v>
       </c>
       <c r="L24" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M24" t="s">
         <v>311</v>
@@ -13730,7 +13531,7 @@
         <v>337.45238499999999</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="M25" t="s">
         <v>287</v>
@@ -13843,7 +13644,7 @@
         <v>332.19378169999999</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="M26" t="s">
         <v>300</v>
@@ -13956,7 +13757,7 @@
         <v>333.20462409999999</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="M27" t="s">
         <v>287</v>
@@ -14069,7 +13870,7 @@
         <v>306.33999999999997</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="M28" t="s">
         <v>287</v>
@@ -14257,7 +14058,7 @@
         <v>1</v>
       </c>
       <c r="AL29" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.25">
@@ -14822,7 +14623,7 @@
         <v>1</v>
       </c>
       <c r="AL34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="35" spans="1:38" ht="45" x14ac:dyDescent="0.25">
@@ -14935,7 +14736,7 @@
         <v>1</v>
       </c>
       <c r="AL35" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="36" spans="1:38" ht="45" x14ac:dyDescent="0.25">
@@ -15312,7 +15113,7 @@
         <v>82.90707639</v>
       </c>
       <c r="L39" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="M39" t="s">
         <v>313</v>
@@ -15764,7 +15565,7 @@
         <v>124.36</v>
       </c>
       <c r="L43" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M43" t="s">
         <v>302</v>
@@ -15877,7 +15678,7 @@
         <v>125.56</v>
       </c>
       <c r="L44" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M44" t="s">
         <v>304</v>
@@ -15952,7 +15753,7 @@
         <v>2</v>
       </c>
       <c r="AL44" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.25">
@@ -15990,7 +15791,7 @@
         <v>124.95</v>
       </c>
       <c r="L45" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="M45" t="s">
         <v>305</v>
@@ -16178,7 +15979,7 @@
         <v>1</v>
       </c>
       <c r="AL46" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.25">
@@ -16216,7 +16017,7 @@
         <v>124.05</v>
       </c>
       <c r="L47" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M47" t="s">
         <v>306</v>
@@ -16291,7 +16092,7 @@
         <v>1</v>
       </c>
       <c r="AL47" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="48" spans="1:38" ht="45" x14ac:dyDescent="0.25">
@@ -16329,7 +16130,7 @@
         <v>130.58000000000001</v>
       </c>
       <c r="L48" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M48" t="s">
         <v>297</v>
@@ -16442,7 +16243,7 @@
         <v>116.67</v>
       </c>
       <c r="L49" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M49" t="s">
         <v>297</v>
@@ -16517,7 +16318,7 @@
         <v>2</v>
       </c>
       <c r="AL49" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.25">
@@ -16555,7 +16356,7 @@
         <v>117.32</v>
       </c>
       <c r="L50" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M50" t="s">
         <v>297</v>
@@ -16630,7 +16431,7 @@
         <v>2</v>
       </c>
       <c r="AL50" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="51" spans="1:38" ht="45" x14ac:dyDescent="0.25">
@@ -16668,7 +16469,7 @@
         <v>114.71</v>
       </c>
       <c r="L51" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M51" t="s">
         <v>297</v>
@@ -16743,7 +16544,7 @@
         <v>2</v>
       </c>
       <c r="AL51" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="52" spans="1:38" ht="45" x14ac:dyDescent="0.25">
@@ -16781,7 +16582,7 @@
         <v>115.05</v>
       </c>
       <c r="L52" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M52" t="s">
         <v>297</v>
@@ -16894,7 +16695,7 @@
         <v>70.099999999999994</v>
       </c>
       <c r="L53" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M53" t="s">
         <v>307</v>
@@ -16969,7 +16770,7 @@
         <v>1</v>
       </c>
       <c r="AL53" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="54" spans="1:38" ht="30" x14ac:dyDescent="0.25">
@@ -17007,7 +16808,7 @@
         <v>74.27</v>
       </c>
       <c r="L54" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="M54" t="s">
         <v>308</v>
@@ -17082,7 +16883,7 @@
         <v>2</v>
       </c>
       <c r="AL54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.25">
@@ -17120,7 +16921,7 @@
         <v>63.89</v>
       </c>
       <c r="L55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M55" t="s">
         <v>297</v>
@@ -17195,7 +16996,7 @@
         <v>1</v>
       </c>
       <c r="AL55" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.25">
@@ -17233,7 +17034,7 @@
         <v>60.93</v>
       </c>
       <c r="L56" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M56" t="s">
         <v>297</v>
@@ -17308,7 +17109,7 @@
         <v>2</v>
       </c>
       <c r="AL56" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="57" spans="1:38" ht="45" x14ac:dyDescent="0.25">
@@ -17334,7 +17135,7 @@
         <v>184</v>
       </c>
       <c r="H57" s="40" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I57" s="4">
         <v>6.3361418</v>
@@ -17346,7 +17147,7 @@
         <v>75.290000000000006</v>
       </c>
       <c r="L57" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M57" t="s">
         <v>297</v>
@@ -17459,7 +17260,7 @@
         <v>214.34610119999999</v>
       </c>
       <c r="L58" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M58" t="s">
         <v>314</v>
@@ -17534,7 +17335,7 @@
         <v>1</v>
       </c>
       <c r="AL58" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.25">
@@ -17572,7 +17373,7 @@
         <v>203.74</v>
       </c>
       <c r="L59" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M59" t="s">
         <v>297</v>
@@ -17647,7 +17448,7 @@
         <v>1</v>
       </c>
       <c r="AL59" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.25">
@@ -17685,7 +17486,7 @@
         <v>204.1</v>
       </c>
       <c r="L60" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M60" t="s">
         <v>297</v>
@@ -17798,7 +17599,7 @@
         <v>200.0371026</v>
       </c>
       <c r="L61" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M61" t="s">
         <v>297</v>
@@ -17911,7 +17712,7 @@
         <v>198.74</v>
       </c>
       <c r="L62" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M62" t="s">
         <v>297</v>
@@ -18024,7 +17825,7 @@
         <v>198.53194260000001</v>
       </c>
       <c r="L63" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M63" t="s">
         <v>297</v>
@@ -18137,7 +17938,7 @@
         <v>204.09</v>
       </c>
       <c r="L64" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M64" t="s">
         <v>297</v>
@@ -18212,7 +18013,7 @@
         <v>1</v>
       </c>
       <c r="AL64" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -18259,10 +18060,10 @@
       <c r="H1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="49"/>
+      <c r="J1" s="50"/>
       <c r="K1" s="32" t="s">
         <v>9</v>
       </c>
@@ -18282,37 +18083,37 @@
         <v>391</v>
       </c>
       <c r="Q1" s="41" t="s">
+        <v>408</v>
+      </c>
+      <c r="R1" s="41" t="s">
         <v>409</v>
       </c>
-      <c r="R1" s="41" t="s">
+      <c r="S1" s="41" t="s">
         <v>410</v>
       </c>
-      <c r="S1" s="41" t="s">
+      <c r="T1" s="41" t="s">
         <v>411</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="U1" s="41" t="s">
         <v>412</v>
       </c>
-      <c r="U1" s="41" t="s">
-        <v>413</v>
-      </c>
       <c r="V1" s="41" t="s">
+        <v>421</v>
+      </c>
+      <c r="W1" s="41" t="s">
         <v>422</v>
       </c>
-      <c r="W1" s="41" t="s">
+      <c r="X1" s="41" t="s">
         <v>423</v>
       </c>
-      <c r="X1" s="41" t="s">
+      <c r="Y1" s="41" t="s">
         <v>424</v>
       </c>
-      <c r="Y1" s="41" t="s">
+      <c r="Z1" s="41" t="s">
         <v>425</v>
       </c>
-      <c r="Z1" s="41" t="s">
+      <c r="AA1" s="41" t="s">
         <v>426</v>
-      </c>
-      <c r="AA1" s="41" t="s">
-        <v>427</v>
       </c>
       <c r="AB1" s="41" t="s">
         <v>392</v>
@@ -18336,7 +18137,7 @@
         <v>398</v>
       </c>
       <c r="AI1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AJ1" t="s">
         <v>405</v>
@@ -18360,7 +18161,7 @@
         <v>404</v>
       </c>
       <c r="AQ1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AR1">
         <v>2017</v>
@@ -18410,7 +18211,7 @@
         <v>262.11297999999999</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M2" t="s">
         <v>287</v>
@@ -18553,7 +18354,7 @@
         <v>222.8452494</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M3" t="s">
         <v>287</v>
@@ -18696,7 +18497,7 @@
         <v>254.18005959999999</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M4" t="s">
         <v>284</v>
@@ -18839,7 +18640,7 @@
         <v>137.0534126</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M5" s="41" t="s">
         <v>288</v>
@@ -18982,7 +18783,7 @@
         <v>350.97296460000001</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M6" s="41" t="s">
         <v>289</v>
@@ -19000,10 +18801,10 @@
         <v>379</v>
       </c>
       <c r="R6" t="s">
+        <v>413</v>
+      </c>
+      <c r="S6" t="s">
         <v>414</v>
-      </c>
-      <c r="S6" t="s">
-        <v>415</v>
       </c>
       <c r="T6" t="s">
         <v>363</v>
@@ -19125,7 +18926,7 @@
         <v>347.4895191</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M7" t="s">
         <v>287</v>
@@ -19143,10 +18944,10 @@
         <v>379</v>
       </c>
       <c r="R7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="S7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="T7" t="s">
         <v>363</v>
@@ -19265,7 +19066,7 @@
         <v>348.40469519999999</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M8" t="s">
         <v>287</v>
@@ -19408,7 +19209,7 @@
         <v>351.41592589999999</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M9" s="41" t="s">
         <v>288</v>
@@ -19551,7 +19352,7 @@
         <v>346.33139999999997</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M10" t="s">
         <v>286</v>
@@ -19694,7 +19495,7 @@
         <v>562.48781320000001</v>
       </c>
       <c r="L11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="M11" s="41" t="s">
         <v>295</v>
@@ -19837,7 +19638,7 @@
         <v>565.17999999999995</v>
       </c>
       <c r="L12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="M12" t="s">
         <v>295</v>
@@ -19980,7 +19781,7 @@
         <v>562.62144560000002</v>
       </c>
       <c r="L13" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="M13" t="s">
         <v>309</v>
@@ -20123,7 +19924,7 @@
         <v>552.81183450000003</v>
       </c>
       <c r="L14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M14" t="s">
         <v>296</v>
@@ -20147,10 +19948,10 @@
         <v>389</v>
       </c>
       <c r="T14" t="s">
+        <v>416</v>
+      </c>
+      <c r="U14" t="s">
         <v>417</v>
-      </c>
-      <c r="U14" t="s">
-        <v>418</v>
       </c>
       <c r="V14" t="s">
         <v>385</v>
@@ -20266,7 +20067,7 @@
         <v>553.31475450000005</v>
       </c>
       <c r="L15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M15" t="s">
         <v>310</v>
@@ -20409,7 +20210,7 @@
         <v>419.95606720000001</v>
       </c>
       <c r="L16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M16" t="s">
         <v>376</v>
@@ -20552,7 +20353,7 @@
         <v>414.038365</v>
       </c>
       <c r="L17" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M17" t="s">
         <v>376</v>
@@ -20695,7 +20496,7 @@
         <v>421.49562250000002</v>
       </c>
       <c r="L18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="M18" t="s">
         <v>297</v>
@@ -20981,7 +20782,7 @@
         <v>335.26</v>
       </c>
       <c r="L20" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M20" t="s">
         <v>376</v>
@@ -21124,7 +20925,7 @@
         <v>349.38920159999998</v>
       </c>
       <c r="L21" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M21" t="s">
         <v>311</v>
@@ -21267,7 +21068,7 @@
         <v>349.38920159999998</v>
       </c>
       <c r="L22" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M22" t="s">
         <v>311</v>
@@ -21285,7 +21086,7 @@
         <v>389</v>
       </c>
       <c r="R22" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="S22" t="s">
         <v>363</v>
@@ -21410,7 +21211,7 @@
         <v>323.38337999999999</v>
       </c>
       <c r="L23" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M23" t="s">
         <v>311</v>
@@ -21428,7 +21229,7 @@
         <v>383</v>
       </c>
       <c r="R23" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="S23" t="s">
         <v>363</v>
@@ -21553,7 +21354,7 @@
         <v>323.38337999999999</v>
       </c>
       <c r="L24" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M24" t="s">
         <v>311</v>
@@ -21696,7 +21497,7 @@
         <v>337.45238499999999</v>
       </c>
       <c r="L25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M25" t="s">
         <v>287</v>
@@ -21711,7 +21512,7 @@
         <v>1</v>
       </c>
       <c r="Q25" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="R25" t="s">
         <v>383</v>
@@ -21839,7 +21640,7 @@
         <v>332.19378169999999</v>
       </c>
       <c r="L26" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M26" t="s">
         <v>300</v>
@@ -21982,7 +21783,7 @@
         <v>333.20462409999999</v>
       </c>
       <c r="L27" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M27" t="s">
         <v>287</v>
@@ -22125,7 +21926,7 @@
         <v>306.33999999999997</v>
       </c>
       <c r="L28" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M28" t="s">
         <v>287</v>
@@ -24270,7 +24071,7 @@
         <v>124.36</v>
       </c>
       <c r="L43" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M43" t="s">
         <v>302</v>
@@ -24413,7 +24214,7 @@
         <v>125.56</v>
       </c>
       <c r="L44" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="M44" t="s">
         <v>304</v>
@@ -24431,7 +24232,7 @@
         <v>383</v>
       </c>
       <c r="R44" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="S44" t="s">
         <v>363</v>
@@ -24556,7 +24357,7 @@
         <v>124.95</v>
       </c>
       <c r="L45" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="M45" t="s">
         <v>305</v>
@@ -24842,7 +24643,7 @@
         <v>124.05</v>
       </c>
       <c r="L47" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M47" t="s">
         <v>306</v>
@@ -24985,7 +24786,7 @@
         <v>130.58000000000001</v>
       </c>
       <c r="L48" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M48" t="s">
         <v>297</v>
@@ -25128,7 +24929,7 @@
         <v>116.67</v>
       </c>
       <c r="L49" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M49" t="s">
         <v>297</v>
@@ -25143,7 +24944,7 @@
         <v>3</v>
       </c>
       <c r="Q49" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="R49" t="s">
         <v>363</v>
@@ -25268,7 +25069,7 @@
         <v>117.32</v>
       </c>
       <c r="L50" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M50" t="s">
         <v>297</v>
@@ -25411,7 +25212,7 @@
         <v>114.71</v>
       </c>
       <c r="L51" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M51" t="s">
         <v>297</v>
@@ -25554,7 +25355,7 @@
         <v>115.05</v>
       </c>
       <c r="L52" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M52" t="s">
         <v>297</v>
@@ -25697,7 +25498,7 @@
         <v>70.099999999999994</v>
       </c>
       <c r="L53" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M53" t="s">
         <v>307</v>
@@ -25840,7 +25641,7 @@
         <v>74.27</v>
       </c>
       <c r="L54" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M54" t="s">
         <v>308</v>
@@ -25983,7 +25784,7 @@
         <v>63.89</v>
       </c>
       <c r="L55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M55" t="s">
         <v>297</v>
@@ -26126,7 +25927,7 @@
         <v>60.93</v>
       </c>
       <c r="L56" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M56" t="s">
         <v>297</v>
@@ -26257,7 +26058,7 @@
         <v>184</v>
       </c>
       <c r="H57" s="40" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I57" s="4">
         <v>6.3361418</v>
@@ -26269,7 +26070,7 @@
         <v>75.290000000000006</v>
       </c>
       <c r="L57" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M57" t="s">
         <v>297</v>
@@ -26412,7 +26213,7 @@
         <v>214.34610119999999</v>
       </c>
       <c r="L58" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M58" t="s">
         <v>314</v>
@@ -26555,7 +26356,7 @@
         <v>203.74</v>
       </c>
       <c r="L59" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M59" t="s">
         <v>297</v>
@@ -26698,7 +26499,7 @@
         <v>204.1</v>
       </c>
       <c r="L60" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M60" t="s">
         <v>297</v>
@@ -26841,7 +26642,7 @@
         <v>200.0371026</v>
       </c>
       <c r="L61" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M61" t="s">
         <v>297</v>
@@ -26984,7 +26785,7 @@
         <v>198.74</v>
       </c>
       <c r="L62" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M62" t="s">
         <v>297</v>
@@ -27127,7 +26928,7 @@
         <v>198.53194260000001</v>
       </c>
       <c r="L63" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M63" t="s">
         <v>297</v>
@@ -27270,7 +27071,7 @@
         <v>204.09</v>
       </c>
       <c r="L64" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M64" t="s">
         <v>297</v>
